--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E147ED-8A51-494B-B350-EE604DA068CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A8115-1BF8-4E8E-BF2D-605FD0626293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{BCE389C3-D16D-4F4E-8635-CEE17680986C}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{54589553-DE36-4E7E-B5A0-71CDFDE40063}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E0441D-4AD6-41E6-9C7F-C8978E0AB180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA0DB1C-5F77-4AEF-99B6-0B20E816E331}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A8115-1BF8-4E8E-BF2D-605FD0626293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29BCC3-61AA-4380-A916-B7065965A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{54589553-DE36-4E7E-B5A0-71CDFDE40063}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{1BCE078D-4907-43F1-9639-AE30FA626942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA0DB1C-5F77-4AEF-99B6-0B20E816E331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABA30F4-E345-4250-B90B-685D97EBAFF0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4.8390041341617547</v>
+        <v>3.1476921897060244</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29BCC3-61AA-4380-A916-B7065965A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5AB266-1DDD-41B0-8989-D98943835576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{1BCE078D-4907-43F1-9639-AE30FA626942}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{A853245D-8876-4338-B88E-9834417D6723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABA30F4-E345-4250-B90B-685D97EBAFF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51ECE2-4455-4EAB-ADE6-9E0C841487AE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3.1476921897060244</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5AB266-1DDD-41B0-8989-D98943835576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2169B4B3-F167-4B6B-9B03-EE8B1C1588B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{A853245D-8876-4338-B88E-9834417D6723}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{BD52F5B2-9F23-40DD-8D79-C4D57810D95A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51ECE2-4455-4EAB-ADE6-9E0C841487AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22F7B8A-371F-4B63-A6F4-C519E579F2C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
